--- a/IREB/G4_Matriz_IREB_V2.0.xlsx
+++ b/IREB/G4_Matriz_IREB_V2.0.xlsx
@@ -8,8 +8,8 @@
     <sheet state="visible" name="Hoja 1" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="Hoja 2" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="Hoja 3" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="RECOMENDACIONES - ConsultarGast" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="RECOMENDACIONES - EjecutarProce" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="RECOMENDACIONES - EjecutarProce" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="RECOMENDACIONES - ConsultarGast" sheetId="7" r:id="rId10"/>
     <sheet state="visible" name="RECOMENDACIONES - RegistrarCuen" sheetId="8" r:id="rId11"/>
     <sheet state="visible" name="RECOMENDACIONES - RegistrarNota" sheetId="9" r:id="rId12"/>
   </sheets>
@@ -17,7 +17,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId13" roundtripDataChecksum="TCBpkCwk9PAs8c16V37sU0UoxFoRzpOSiF7RqGBlOF0="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId13" roundtripDataChecksum="JEjC2e7gBJZuajmW7b9wA5hloIioYUR0Tcu9nx+Obc8="/>
     </ext>
   </extLst>
 </workbook>
@@ -193,7 +193,7 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mj2G1Idep8BsxLbfKgY6tRMZ7adYg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mjztatWwuuPcgI0nt8FBBtn7q+QoA=="/>
     </ext>
   </extLst>
 </comments>
@@ -280,14 +280,14 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mih8TwILw7ndPVV53qDhk/IgVS5Ag=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7miqVkI2LGF7oIiLyyospcp71DOIWQ=="/>
     </ext>
   </extLst>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="101">
   <si>
     <t>MATRIZ PARA COMPROBACIÓN REQUERIMIENTOS DE CALIDAD DE PROYECTO ACADEMICO</t>
   </si>
@@ -343,9 +343,6 @@
     <t>Ranked</t>
   </si>
   <si>
-    <t>NOK</t>
-  </si>
-  <si>
     <t>1. En la descripción del caso de Uso se especifica la prioridad obligatoria</t>
   </si>
   <si>
@@ -359,6 +356,9 @@
   </si>
   <si>
     <t>1. Toda nueva información ha sido incorporada, se han incorporado los últimos cambios pedidos luego del feedback realizado por el cliente</t>
+  </si>
+  <si>
+    <t>NOK</t>
   </si>
   <si>
     <t>1. No se han incorporado los últimos cambios pedidos luego del feedback realizado por el cliente</t>
@@ -423,8 +423,7 @@
     <t>Understandability</t>
   </si>
   <si>
-    <t>1. Se involucra al cliente
-2. Existe glosario de términos</t>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>1. Se involucra al cliente 
@@ -445,9 +444,6 @@
   <si>
     <t xml:space="preserve">CU-FeelTheControl-005-Consultar Gastos
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Pregunta</t>
@@ -552,13 +548,28 @@
     <t>Existe algún mecanismo que permita seguir el impacto de dicho requerimiento a lo largo del resto de las actividades del ciclo productivo?</t>
   </si>
   <si>
+    <t>Asegurar que la matriz de trazabilidad se mantenga actualizada conforme avanza el desarrollo y las pruebas, para garantizar que cualquier cambio se refleje en el diseño, implementación y validación.</t>
+  </si>
+  <si>
+    <t>Mantener los enlaces activos y documentar versiones (control de cambios), de modo que sea sencillo rastrear modificaciones en futuras iteraciones o auditorías del proyecto.</t>
+  </si>
+  <si>
+    <t>Cumple con la estructura definida por el estándar?</t>
+  </si>
+  <si>
+    <t>Ampliar la descripción del requisito incluyendo precondiciones, postcondiciones, flujos alternos y excepciones, para mejorar la completitud conforme al estándar IEEE 830.</t>
+  </si>
+  <si>
+    <t>Utiliza un Glosario de término normalizado?</t>
+  </si>
+  <si>
+    <t>Incorporar en el glosario definiciones más específicas sobre “Proceso de Pago”, “Pago Manual” o “Ejecución de Pago Automático”, para evitar ambigüedades entre los distintos roles (Contador, Staff, Jefe de Ticketera).</t>
+  </si>
+  <si>
     <t>Mantener actualizada la matriz de trazabilidad en cada iteración del proyecto (Scrum), asegurando que los cambios del RF09 se reflejen también en los casos de prueba, interfaces y requisitos no funcionales.</t>
   </si>
   <si>
     <t>Implementar una herramienta de gestión de requisitos (como Jira, Trello o Notion) que permita vincular directamente cada requisito con sus artefactos (casos de uso, pruebas, commits).</t>
-  </si>
-  <si>
-    <t>Cumple con la estructura definida por el estándar?</t>
   </si>
   <si>
     <t>Continuar siguiendo el estándar IEEE 830-1998 o actualizar el formato a IEEE 29148-2018, que es la versión moderna del estándar para SRS.</t>
@@ -570,18 +581,6 @@
     <t>Revisar y ampliar el glosario de términos conforme se agreguen nuevas funcionalidades o roles al sistema. Además, incluir ejemplos visuales o referencias a pantallas para asegurar que todos los usuarios (técnicos y no técnicos) interpreten los términos de la misma forma.</t>
   </si>
   <si>
-    <t>Asegurar que la matriz de trazabilidad se mantenga actualizada conforme avanza el desarrollo y las pruebas, para garantizar que cualquier cambio se refleje en el diseño, implementación y validación.</t>
-  </si>
-  <si>
-    <t>Mantener los enlaces activos y documentar versiones (control de cambios), de modo que sea sencillo rastrear modificaciones en futuras iteraciones o auditorías del proyecto.</t>
-  </si>
-  <si>
-    <t>Ampliar la descripción del requisito incluyendo precondiciones, postcondiciones, flujos alternos y excepciones, para mejorar la completitud conforme al estándar IEEE 830.</t>
-  </si>
-  <si>
-    <t>Incorporar en el glosario definiciones más específicas sobre “Proceso de Pago”, “Pago Manual” o “Ejecución de Pago Automático”, para evitar ambigüedades entre los distintos roles (Contador, Staff, Jefe de Ticketera).</t>
-  </si>
-  <si>
     <t xml:space="preserve">Se cuenta con el diagrama de Gant para visualizar las actividades progresivamente, se recomienda especificar dentro del mismo cuáles son los módulos que se desarrollaron usando el mismo nombre del requerimiento. </t>
   </si>
   <si>
@@ -589,9 +588,6 @@
   </si>
   <si>
     <t>Según el estándar IEEE830 recomendaría especificar más los términos como "forma 1" a pesar de contar con hipervínculo. y agregar algún criterio medible. Hcaer referencia al aspecto de seguridad.</t>
-  </si>
-  <si>
-    <t>Utiliza un Glosario de término normalizado?</t>
   </si>
   <si>
     <t>Si, dentro del glosario se encuentra el término "staff" que se menciona en el requisito, sin embargo se recomienda plantear más definiciones.</t>
@@ -981,7 +977,7 @@
     <xf borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="7" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -993,14 +989,14 @@
     <xf borderId="7" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="13" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
@@ -2492,28 +2488,28 @@
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="24" t="s">
-        <v>17</v>
-      </c>
       <c r="G10" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="24" t="s">
-        <v>17</v>
-      </c>
       <c r="J10" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="24" t="s">
         <v>16</v>
-      </c>
-      <c r="K10" s="24" t="s">
-        <v>17</v>
       </c>
       <c r="L10" s="19" t="s">
         <v>12</v>
       </c>
       <c r="M10" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="48.75" customHeight="1">
@@ -2521,32 +2517,32 @@
         <v>3.0</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G11" s="19" t="s">
         <v>12</v>
       </c>
       <c r="I11" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J11" s="19" t="s">
         <v>12</v>
       </c>
       <c r="K11" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L11" s="19" t="s">
         <v>12</v>
       </c>
       <c r="M11" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="45.0" customHeight="1">
@@ -2554,22 +2550,22 @@
         <v>4.0</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="19" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="27" t="s">
         <v>21</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>16</v>
       </c>
       <c r="I12" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="J12" s="28" t="s">
+      <c r="J12" s="23" t="s">
         <v>12</v>
       </c>
       <c r="K12" s="26" t="s">
@@ -2630,12 +2626,12 @@
         <v>27</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I14" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="28" t="s">
+      <c r="J14" s="23" t="s">
         <v>12</v>
       </c>
       <c r="K14" s="26" t="s">
@@ -2657,25 +2653,25 @@
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="27" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F15" s="26" t="s">
         <v>30</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I15" s="26" t="s">
         <v>30</v>
       </c>
       <c r="J15" s="27" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K15" s="26" t="s">
         <v>30</v>
       </c>
       <c r="L15" s="27" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M15" s="26" t="s">
         <v>30</v>
@@ -2690,25 +2686,25 @@
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="27" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F16" s="26" t="s">
         <v>32</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I16" s="26" t="s">
         <v>32</v>
       </c>
       <c r="J16" s="27" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K16" s="26" t="s">
         <v>32</v>
       </c>
       <c r="L16" s="27" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M16" s="26" t="s">
         <v>32</v>
@@ -2725,25 +2721,25 @@
       <c r="E17" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="29" t="s">
+      <c r="F17" s="28" t="s">
         <v>34</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="29" t="s">
+      <c r="I17" s="28" t="s">
         <v>34</v>
       </c>
       <c r="J17" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="K17" s="29" t="s">
+      <c r="K17" s="28" t="s">
         <v>35</v>
       </c>
       <c r="L17" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="M17" s="29" t="s">
+      <c r="M17" s="28" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2791,7 +2787,7 @@
       <c r="E19" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="29" t="s">
         <v>41</v>
       </c>
       <c r="G19" s="19" t="s">
@@ -2801,7 +2797,7 @@
         <v>42</v>
       </c>
       <c r="J19" s="27" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K19" s="26" t="s">
         <v>42</v>
@@ -4308,21 +4304,21 @@
     <row r="5" ht="14.25" customHeight="1"/>
     <row r="6">
       <c r="A6" s="36" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="C7" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="D7" s="39" t="s">
         <v>50</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1">
@@ -4330,10 +4326,10 @@
         <v>1.0</v>
       </c>
       <c r="B8" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="42" t="s">
         <v>52</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>53</v>
       </c>
       <c r="D8" s="43"/>
     </row>
@@ -4342,10 +4338,10 @@
         <v>2.0</v>
       </c>
       <c r="B9" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="44" t="s">
         <v>54</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>55</v>
       </c>
       <c r="D9" s="43"/>
     </row>
@@ -4354,10 +4350,10 @@
         <v>3.0</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" s="43"/>
     </row>
@@ -4366,10 +4362,10 @@
         <v>4.0</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="43"/>
     </row>
@@ -4378,10 +4374,10 @@
         <v>5.0</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" s="43"/>
     </row>
@@ -4390,10 +4386,10 @@
         <v>6.0</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" s="43"/>
     </row>
@@ -4402,10 +4398,10 @@
         <v>7.0</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" s="43"/>
     </row>
@@ -4414,10 +4410,10 @@
         <v>8.0</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" s="43"/>
     </row>
@@ -4426,16 +4422,16 @@
         <v>9.0</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" s="47"/>
       <c r="D16" s="47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" s="49">
         <f>COUNTA('MODELO LISTA DE COMPROBACION - '!$C$8:$C$16)</f>
@@ -4448,7 +4444,7 @@
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18" s="50">
         <f t="shared" ref="C18:D18" si="1">C17/9</f>
@@ -4467,7 +4463,7 @@
     </row>
     <row r="20">
       <c r="A20" s="51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B20" s="52"/>
       <c r="C20" s="52"/>
@@ -4475,16 +4471,16 @@
     </row>
     <row r="21">
       <c r="A21" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="56" t="s">
         <v>66</v>
-      </c>
-      <c r="B21" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="56" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
@@ -4492,10 +4488,10 @@
         <v>1.0</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C22" s="47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D22" s="57"/>
     </row>
@@ -4504,10 +4500,10 @@
         <v>2.0</v>
       </c>
       <c r="B23" s="41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C23" s="47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D23" s="57"/>
     </row>
@@ -4516,10 +4512,10 @@
         <v>3.0</v>
       </c>
       <c r="B24" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C24" s="47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D24" s="57"/>
     </row>
@@ -4528,10 +4524,10 @@
         <v>4.0</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C25" s="47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D25" s="57"/>
     </row>
@@ -4540,16 +4536,16 @@
         <v>5.0</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C26" s="47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D26" s="58"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
       <c r="A27" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" s="49">
         <f>COUNTA('MODELO LISTA DE COMPROBACION - '!$C$22:$C$26)</f>
@@ -4562,7 +4558,7 @@
     </row>
     <row r="28" ht="14.25" customHeight="1">
       <c r="A28" s="48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C28" s="50">
         <f t="shared" ref="C28:D28" si="2">C27/5</f>
@@ -4581,21 +4577,21 @@
     </row>
     <row r="30">
       <c r="A30" s="59" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="56" t="s">
         <v>66</v>
-      </c>
-      <c r="B31" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" s="56" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="32" ht="14.25" customHeight="1">
@@ -4603,10 +4599,10 @@
         <v>1.0</v>
       </c>
       <c r="B32" s="41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C32" s="47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D32" s="47"/>
     </row>
@@ -4615,10 +4611,10 @@
         <v>2.0</v>
       </c>
       <c r="B33" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C33" s="47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D33" s="47"/>
     </row>
@@ -4627,16 +4623,16 @@
         <v>3.0</v>
       </c>
       <c r="B34" s="46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C34" s="47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D34" s="47"/>
     </row>
     <row r="35" ht="14.25" customHeight="1">
       <c r="A35" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C35" s="21">
         <f>COUNTA('MODELO LISTA DE COMPROBACION - '!$C$32:$C$34)</f>
@@ -4649,7 +4645,7 @@
     </row>
     <row r="36" ht="14.25" customHeight="1">
       <c r="A36" s="48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C36" s="50">
         <f t="shared" ref="C36:D36" si="3">C35/3</f>
@@ -4665,12 +4661,12 @@
     <row r="39" ht="14.25" customHeight="1"/>
     <row r="40">
       <c r="A40" s="60" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" ht="30.0" customHeight="1">
       <c r="B41" s="30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C41" s="50">
         <f>C18</f>
@@ -4679,7 +4675,7 @@
     </row>
     <row r="42" ht="30.0" customHeight="1">
       <c r="B42" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C42" s="50">
         <f>C28</f>
@@ -4688,7 +4684,7 @@
     </row>
     <row r="43" ht="30.0" customHeight="1">
       <c r="B43" s="30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C43" s="50">
         <f>C36</f>
@@ -5801,18 +5797,18 @@
     <row r="5" ht="14.25" customHeight="1"/>
     <row r="6">
       <c r="A6" s="59" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="61" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="38" t="s">
         <v>49</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>50</v>
       </c>
       <c r="D7" s="62"/>
     </row>
@@ -5821,10 +5817,10 @@
         <v>1.0</v>
       </c>
       <c r="B8" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="42" t="s">
         <v>52</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>53</v>
       </c>
       <c r="D8" s="43"/>
     </row>
@@ -5833,11 +5829,11 @@
         <v>2.0</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="42"/>
       <c r="D9" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" ht="29.25" customHeight="1">
@@ -5845,10 +5841,10 @@
         <v>3.0</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" s="43"/>
     </row>
@@ -5857,10 +5853,10 @@
         <v>4.0</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="43"/>
     </row>
@@ -5869,10 +5865,10 @@
         <v>5.0</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" s="43"/>
     </row>
@@ -5881,10 +5877,10 @@
         <v>6.0</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" s="43"/>
     </row>
@@ -5893,10 +5889,10 @@
         <v>7.0</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" s="43"/>
     </row>
@@ -5905,10 +5901,10 @@
         <v>8.0</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" s="43"/>
     </row>
@@ -5917,16 +5913,16 @@
         <v>9.0</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" s="63" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16" s="47"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" s="49">
         <f>COUNTA('Hoja 1'!$C$8:$C$16)</f>
@@ -5939,7 +5935,7 @@
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18" s="50">
         <f t="shared" ref="C18:D18" si="1">C17/9</f>
@@ -5958,7 +5954,7 @@
     </row>
     <row r="20">
       <c r="A20" s="51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B20" s="52"/>
       <c r="C20" s="52"/>
@@ -5966,16 +5962,16 @@
     </row>
     <row r="21">
       <c r="A21" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="56" t="s">
         <v>66</v>
-      </c>
-      <c r="B21" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="56" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
@@ -5983,10 +5979,10 @@
         <v>1.0</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C22" s="47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D22" s="57"/>
     </row>
@@ -5995,10 +5991,10 @@
         <v>2.0</v>
       </c>
       <c r="B23" s="41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C23" s="47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D23" s="57"/>
     </row>
@@ -6007,10 +6003,10 @@
         <v>3.0</v>
       </c>
       <c r="B24" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C24" s="47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D24" s="57"/>
     </row>
@@ -6019,10 +6015,10 @@
         <v>4.0</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C25" s="47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D25" s="57"/>
     </row>
@@ -6031,16 +6027,16 @@
         <v>5.0</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C26" s="47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D26" s="58"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
       <c r="A27" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" s="49">
         <f>COUNTA('Hoja 1'!$C$22:$C$26)</f>
@@ -6053,7 +6049,7 @@
     </row>
     <row r="28" ht="14.25" customHeight="1">
       <c r="A28" s="48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C28" s="50">
         <f t="shared" ref="C28:D28" si="2">C27/5</f>
@@ -6072,21 +6068,21 @@
     </row>
     <row r="30">
       <c r="A30" s="59" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="56" t="s">
         <v>66</v>
-      </c>
-      <c r="B31" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" s="56" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="32" ht="14.25" customHeight="1">
@@ -6094,10 +6090,10 @@
         <v>1.0</v>
       </c>
       <c r="B32" s="41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C32" s="47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D32" s="47"/>
     </row>
@@ -6106,11 +6102,11 @@
         <v>2.0</v>
       </c>
       <c r="B33" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C33" s="47"/>
       <c r="D33" s="63" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" ht="14.25" customHeight="1">
@@ -6118,16 +6114,16 @@
         <v>3.0</v>
       </c>
       <c r="B34" s="46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C34" s="47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D34" s="47"/>
     </row>
     <row r="35" ht="14.25" customHeight="1">
       <c r="A35" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C35" s="21">
         <f>COUNTA('Hoja 1'!$C$32:$C$34)</f>
@@ -6140,7 +6136,7 @@
     </row>
     <row r="36" ht="14.25" customHeight="1">
       <c r="A36" s="48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C36" s="50">
         <f t="shared" ref="C36:D36" si="3">C35/3</f>
@@ -6156,12 +6152,12 @@
     <row r="39" ht="14.25" customHeight="1"/>
     <row r="40">
       <c r="A40" s="60" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" ht="30.0" customHeight="1">
       <c r="B41" s="30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C41" s="50">
         <f>C18</f>
@@ -6170,7 +6166,7 @@
     </row>
     <row r="42" ht="30.0" customHeight="1">
       <c r="B42" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C42" s="50">
         <f>C28</f>
@@ -6179,7 +6175,7 @@
     </row>
     <row r="43" ht="30.0" customHeight="1">
       <c r="B43" s="30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C43" s="64">
         <f>C36</f>
@@ -7290,18 +7286,18 @@
     <row r="5" ht="14.25" customHeight="1"/>
     <row r="6">
       <c r="A6" s="59" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="61" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="38" t="s">
         <v>49</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>50</v>
       </c>
       <c r="D7" s="62"/>
     </row>
@@ -7310,10 +7306,10 @@
         <v>1.0</v>
       </c>
       <c r="B8" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="42" t="s">
         <v>52</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>53</v>
       </c>
       <c r="D8" s="43"/>
     </row>
@@ -7322,10 +7318,10 @@
         <v>2.0</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" s="43"/>
     </row>
@@ -7334,10 +7330,10 @@
         <v>3.0</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" s="43"/>
     </row>
@@ -7346,10 +7342,10 @@
         <v>4.0</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="43"/>
     </row>
@@ -7358,10 +7354,10 @@
         <v>5.0</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" s="43"/>
     </row>
@@ -7370,10 +7366,10 @@
         <v>6.0</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" s="43"/>
     </row>
@@ -7382,10 +7378,10 @@
         <v>7.0</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" s="43"/>
     </row>
@@ -7394,10 +7390,10 @@
         <v>8.0</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" s="43"/>
     </row>
@@ -7406,16 +7402,16 @@
         <v>9.0</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" s="63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D16" s="47"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" s="49">
         <f>COUNTA('Hoja 2'!$C$8:$C$16)</f>
@@ -7428,7 +7424,7 @@
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18" s="50">
         <f t="shared" ref="C18:D18" si="1">C17/9</f>
@@ -7447,7 +7443,7 @@
     </row>
     <row r="20">
       <c r="A20" s="51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B20" s="52"/>
       <c r="C20" s="52"/>
@@ -7455,16 +7451,16 @@
     </row>
     <row r="21">
       <c r="A21" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="56" t="s">
         <v>66</v>
-      </c>
-      <c r="B21" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="56" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
@@ -7472,10 +7468,10 @@
         <v>1.0</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C22" s="47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D22" s="57"/>
     </row>
@@ -7484,10 +7480,10 @@
         <v>2.0</v>
       </c>
       <c r="B23" s="41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C23" s="47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D23" s="57"/>
     </row>
@@ -7496,11 +7492,11 @@
         <v>3.0</v>
       </c>
       <c r="B24" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C24" s="47"/>
       <c r="D24" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
@@ -7508,10 +7504,10 @@
         <v>4.0</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C25" s="47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D25" s="57"/>
     </row>
@@ -7520,16 +7516,16 @@
         <v>5.0</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C26" s="47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D26" s="58"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
       <c r="A27" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" s="49">
         <f>COUNTA('Hoja 2'!$C$22:$C$26)</f>
@@ -7542,7 +7538,7 @@
     </row>
     <row r="28" ht="14.25" customHeight="1">
       <c r="A28" s="48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C28" s="50">
         <f t="shared" ref="C28:D28" si="2">C27/5</f>
@@ -7561,21 +7557,21 @@
     </row>
     <row r="30">
       <c r="A30" s="59" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="56" t="s">
         <v>66</v>
-      </c>
-      <c r="B31" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" s="56" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="32" ht="14.25" customHeight="1">
@@ -7583,10 +7579,10 @@
         <v>1.0</v>
       </c>
       <c r="B32" s="41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C32" s="47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D32" s="47"/>
     </row>
@@ -7595,10 +7591,10 @@
         <v>2.0</v>
       </c>
       <c r="B33" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C33" s="47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D33" s="47"/>
     </row>
@@ -7607,16 +7603,16 @@
         <v>3.0</v>
       </c>
       <c r="B34" s="46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C34" s="47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D34" s="47"/>
     </row>
     <row r="35" ht="14.25" customHeight="1">
       <c r="A35" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C35" s="21">
         <f>COUNTA('Hoja 2'!$C$32:$C$34)</f>
@@ -7629,7 +7625,7 @@
     </row>
     <row r="36" ht="14.25" customHeight="1">
       <c r="A36" s="48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C36" s="50">
         <f t="shared" ref="C36:D36" si="3">C35/3</f>
@@ -7645,12 +7641,12 @@
     <row r="39" ht="14.25" customHeight="1"/>
     <row r="40">
       <c r="A40" s="60" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" ht="30.0" customHeight="1">
       <c r="B41" s="30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C41" s="49">
         <v>89.0</v>
@@ -7658,7 +7654,7 @@
     </row>
     <row r="42" ht="30.0" customHeight="1">
       <c r="B42" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C42" s="49">
         <v>100.0</v>
@@ -7666,7 +7662,7 @@
     </row>
     <row r="43" ht="30.0" customHeight="1">
       <c r="B43" s="30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C43" s="49">
         <v>100.0</v>
@@ -8776,18 +8772,18 @@
     <row r="5" ht="14.25" customHeight="1"/>
     <row r="6">
       <c r="A6" s="59" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="61" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="38" t="s">
         <v>49</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>50</v>
       </c>
       <c r="D7" s="62"/>
     </row>
@@ -8796,10 +8792,10 @@
         <v>1.0</v>
       </c>
       <c r="B8" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="42" t="s">
         <v>52</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>53</v>
       </c>
       <c r="D8" s="43"/>
     </row>
@@ -8808,10 +8804,10 @@
         <v>2.0</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" s="43"/>
     </row>
@@ -8820,10 +8816,10 @@
         <v>3.0</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" s="43"/>
     </row>
@@ -8832,10 +8828,10 @@
         <v>4.0</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="43"/>
     </row>
@@ -8844,10 +8840,10 @@
         <v>5.0</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" s="43"/>
     </row>
@@ -8856,10 +8852,10 @@
         <v>6.0</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" s="43"/>
     </row>
@@ -8868,10 +8864,10 @@
         <v>7.0</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" s="43"/>
     </row>
@@ -8880,10 +8876,10 @@
         <v>8.0</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" s="43"/>
     </row>
@@ -8892,16 +8888,16 @@
         <v>9.0</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" s="63" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16" s="47"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" s="49">
         <f>COUNTA('Hoja 3'!$C$8:$C$16)</f>
@@ -8914,7 +8910,7 @@
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18" s="50">
         <f t="shared" ref="C18:D18" si="1">C17/9</f>
@@ -8933,7 +8929,7 @@
     </row>
     <row r="20">
       <c r="A20" s="51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B20" s="52"/>
       <c r="C20" s="52"/>
@@ -8941,16 +8937,16 @@
     </row>
     <row r="21">
       <c r="A21" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="56" t="s">
         <v>66</v>
-      </c>
-      <c r="B21" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="56" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1">
@@ -8958,10 +8954,10 @@
         <v>1.0</v>
       </c>
       <c r="B22" s="41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C22" s="47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D22" s="57"/>
     </row>
@@ -8970,10 +8966,10 @@
         <v>2.0</v>
       </c>
       <c r="B23" s="41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C23" s="47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D23" s="57"/>
     </row>
@@ -8982,10 +8978,10 @@
         <v>3.0</v>
       </c>
       <c r="B24" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C24" s="47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D24" s="57"/>
     </row>
@@ -8994,10 +8990,10 @@
         <v>4.0</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C25" s="47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D25" s="57"/>
     </row>
@@ -9006,16 +9002,16 @@
         <v>5.0</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C26" s="47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D26" s="58"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
       <c r="A27" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" s="49">
         <f>COUNTA('Hoja 3'!$C$22:$C$26)</f>
@@ -9028,7 +9024,7 @@
     </row>
     <row r="28" ht="14.25" customHeight="1">
       <c r="A28" s="48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C28" s="50">
         <f t="shared" ref="C28:D28" si="2">C27/5</f>
@@ -9047,21 +9043,21 @@
     </row>
     <row r="30">
       <c r="A30" s="59" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="56" t="s">
         <v>66</v>
-      </c>
-      <c r="B31" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="D31" s="56" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="32" ht="14.25" customHeight="1">
@@ -9069,10 +9065,10 @@
         <v>1.0</v>
       </c>
       <c r="B32" s="41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C32" s="47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D32" s="47"/>
     </row>
@@ -9081,10 +9077,10 @@
         <v>2.0</v>
       </c>
       <c r="B33" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C33" s="47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D33" s="47"/>
     </row>
@@ -9093,16 +9089,16 @@
         <v>3.0</v>
       </c>
       <c r="B34" s="46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C34" s="63" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D34" s="63"/>
     </row>
     <row r="35" ht="14.25" customHeight="1">
       <c r="A35" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C35" s="21">
         <f>COUNTA('Hoja 3'!$C$32:$C$34)</f>
@@ -9115,7 +9111,7 @@
     </row>
     <row r="36" ht="14.25" customHeight="1">
       <c r="A36" s="48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C36" s="50">
         <f t="shared" ref="C36:D36" si="3">C35/3</f>
@@ -9131,12 +9127,12 @@
     <row r="39" ht="14.25" customHeight="1"/>
     <row r="40">
       <c r="A40" s="60" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" ht="30.0" customHeight="1">
       <c r="B41" s="30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C41" s="50">
         <f>C18</f>
@@ -9145,7 +9141,7 @@
     </row>
     <row r="42" ht="30.0" customHeight="1">
       <c r="B42" s="30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C42" s="50">
         <f>C28</f>
@@ -9154,7 +9150,7 @@
     </row>
     <row r="43" ht="30.0" customHeight="1">
       <c r="B43" s="30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C43" s="50">
         <f>C36</f>
@@ -10201,49 +10197,49 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="53.14"/>
+    <col customWidth="1" min="1" max="1" width="53.57"/>
     <col customWidth="1" min="2" max="2" width="57.29"/>
     <col customWidth="1" min="3" max="6" width="10.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="65" t="s">
         <v>80</v>
-      </c>
-      <c r="B1" s="65" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="67" t="s">
+    </row>
+    <row r="3">
+      <c r="A3" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="68" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" ht="43.5" customHeight="1">
-      <c r="A3" s="66" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="68" t="s">
+    <row r="4">
+      <c r="A4" s="69" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="4" ht="40.5" customHeight="1">
-      <c r="A4" s="69" t="s">
+      <c r="B4" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="70" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" s="69" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="5" ht="72.75" customHeight="1">
-      <c r="A5" s="71" t="s">
+      <c r="B5" s="70" t="s">
         <v>87</v>
-      </c>
-      <c r="B5" s="72" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1"/>
@@ -11259,48 +11255,48 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="53.57"/>
+    <col customWidth="1" min="1" max="1" width="53.14"/>
     <col customWidth="1" min="2" max="2" width="57.29"/>
     <col customWidth="1" min="3" max="6" width="10.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="65" t="s">
         <v>80</v>
-      </c>
-      <c r="B1" s="65" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="66" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" s="67" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" ht="43.5" customHeight="1">
+      <c r="A3" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="68" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="66" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="68" t="s">
+    <row r="4" ht="40.5" customHeight="1">
+      <c r="A4" s="69" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="70" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="69" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="70" t="s">
+    <row r="5" ht="72.75" customHeight="1">
+      <c r="A5" s="71" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="69" t="s">
-        <v>87</v>
-      </c>
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="72" t="s">
         <v>92</v>
       </c>
     </row>
@@ -12324,15 +12320,15 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="65" t="s">
         <v>80</v>
-      </c>
-      <c r="B1" s="65" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="66" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" s="67" t="s">
         <v>93</v>
@@ -12340,7 +12336,7 @@
     </row>
     <row r="3">
       <c r="A3" s="66" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="68" t="s">
         <v>94</v>
@@ -12348,7 +12344,7 @@
     </row>
     <row r="4">
       <c r="A4" s="69" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4" s="70" t="s">
         <v>95</v>
@@ -12356,10 +12352,10 @@
     </row>
     <row r="5">
       <c r="A5" s="69" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="70" t="s">
         <v>96</v>
-      </c>
-      <c r="B5" s="70" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1"/>
@@ -13382,42 +13378,42 @@
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="65" t="s">
         <v>80</v>
-      </c>
-      <c r="B1" s="65" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="66" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" s="73" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="66" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="73" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="69" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4" s="73" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="71" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B5" s="73" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1"/>
